--- a/Codes/Multiple ANN models/Best_Models_from_C1_and_C2/Best_Model_details_C2onC1.xlsx
+++ b/Codes/Multiple ANN models/Best_Models_from_C1_and_C2/Best_Model_details_C2onC1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Model</t>
   </si>
@@ -52,10 +52,25 @@
     <t>%error(Ksym_Lam)</t>
   </si>
   <si>
-    <t>ANN(2HL-17,17 Nodes)</t>
-  </si>
-  <si>
-    <t>ANN(2HL-20,18 Nodes)</t>
+    <t>ANN(2HL-15,14 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-16,12 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-16,14 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-17,15 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-18,11 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-18,13 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-19,7 Nodes)</t>
   </si>
 </sst>
 </file>
@@ -413,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,84 +474,289 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2">
-        <v>29.20375191568905</v>
+        <v>29.79255557530882</v>
       </c>
       <c r="D2">
-        <v>0.02577795704331616</v>
+        <v>0.03101584891780202</v>
       </c>
       <c r="E2">
-        <v>0.3374034775554099</v>
+        <v>0.3440591360381174</v>
       </c>
       <c r="F2">
-        <v>50.58125020449372</v>
+        <v>51.60106359806572</v>
       </c>
       <c r="G2">
-        <v>0.8803817740830708</v>
+        <v>0.8689024597341793</v>
       </c>
       <c r="H2">
         <v>0.5626943361349014</v>
       </c>
       <c r="I2">
-        <v>0.5605710626289621</v>
+        <v>0.5666381622580312</v>
       </c>
       <c r="J2">
-        <v>0.003773404794730846</v>
+        <v>0.007008824986971831</v>
       </c>
       <c r="K2">
         <v>0.5810958102864388</v>
       </c>
       <c r="L2">
-        <v>0.6326768522464421</v>
+        <v>0.6367986237230155</v>
       </c>
       <c r="M2">
-        <v>0.08876512452323065</v>
+        <v>0.09585822587349112</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>29.27724217473673</v>
+        <v>28.87649571763723</v>
       </c>
       <c r="D3">
-        <v>0.03017868343420282</v>
+        <v>0.03076258786658128</v>
       </c>
       <c r="E3">
-        <v>0.3332363925368322</v>
+        <v>0.3334853563758517</v>
       </c>
       <c r="F3">
-        <v>50.70856703584028</v>
+        <v>50.01443647560607</v>
       </c>
       <c r="G3">
-        <v>0.875253260594346</v>
+        <v>0.8757911553944638</v>
       </c>
       <c r="H3">
         <v>0.5626943361349014</v>
       </c>
       <c r="I3">
-        <v>0.5658812027287796</v>
+        <v>0.5744761491511478</v>
       </c>
       <c r="J3">
-        <v>0.005663583919768137</v>
+        <v>0.02093821149360525</v>
       </c>
       <c r="K3">
         <v>0.5810958102864388</v>
       </c>
       <c r="L3">
-        <v>0.6376995601409862</v>
+        <v>0.6177948403117499</v>
       </c>
       <c r="M3">
-        <v>0.09740863529311251</v>
+        <v>0.06315486943060415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>29.02177122370179</v>
+      </c>
+      <c r="D4">
+        <v>0.0331771854711562</v>
+      </c>
+      <c r="E4">
+        <v>0.3302031688197035</v>
+      </c>
+      <c r="F4">
+        <v>50.26608677850626</v>
+      </c>
+      <c r="G4">
+        <v>0.8723949308099769</v>
+      </c>
+      <c r="H4">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I4">
+        <v>0.5672931758867612</v>
+      </c>
+      <c r="J4">
+        <v>0.008172891491051517</v>
+      </c>
+      <c r="K4">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L4">
+        <v>0.638949836950552</v>
+      </c>
+      <c r="M4">
+        <v>0.0995602199155339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>30.46349768325376</v>
+      </c>
+      <c r="D5">
+        <v>0.02734381235705898</v>
+      </c>
+      <c r="E5">
+        <v>0.3347518563853186</v>
+      </c>
+      <c r="F5">
+        <v>52.76325678730792</v>
+      </c>
+      <c r="G5">
+        <v>0.8743145601647125</v>
+      </c>
+      <c r="H5">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I5">
+        <v>0.5741207749199717</v>
+      </c>
+      <c r="J5">
+        <v>0.0203066532774393</v>
+      </c>
+      <c r="K5">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L5">
+        <v>0.6132805559301939</v>
+      </c>
+      <c r="M5">
+        <v>0.05538629787726466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>29.58813165033899</v>
+      </c>
+      <c r="D6">
+        <v>0.0292938187988393</v>
+      </c>
+      <c r="E6">
+        <v>0.3329075428773983</v>
+      </c>
+      <c r="F6">
+        <v>51.24705765322974</v>
+      </c>
+      <c r="G6">
+        <v>0.8754760642013585</v>
+      </c>
+      <c r="H6">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I6">
+        <v>0.5715514665766456</v>
+      </c>
+      <c r="J6">
+        <v>0.0157405715198469</v>
+      </c>
+      <c r="K6">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L6">
+        <v>0.6382819002164322</v>
+      </c>
+      <c r="M6">
+        <v>0.09841077653236693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>28.92467133004088</v>
+      </c>
+      <c r="D7">
+        <v>0.02553169687555144</v>
+      </c>
+      <c r="E7">
+        <v>0.3424138820239979</v>
+      </c>
+      <c r="F7">
+        <v>50.09782366049964</v>
+      </c>
+      <c r="G7">
+        <v>0.8802612333860869</v>
+      </c>
+      <c r="H7">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I7">
+        <v>0.5755121896027356</v>
+      </c>
+      <c r="J7">
+        <v>0.02277942507095235</v>
+      </c>
+      <c r="K7">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L7">
+        <v>0.619739706435734</v>
+      </c>
+      <c r="M7">
+        <v>0.06650176350479367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>29.49076300639967</v>
+      </c>
+      <c r="D8">
+        <v>0.03544833368257726</v>
+      </c>
+      <c r="E8">
+        <v>0.3410435600066394</v>
+      </c>
+      <c r="F8">
+        <v>51.07834904149419</v>
+      </c>
+      <c r="G8">
+        <v>0.8636848141526428</v>
+      </c>
+      <c r="H8">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I8">
+        <v>0.5511919334609644</v>
+      </c>
+      <c r="J8">
+        <v>0.02044165355021341</v>
+      </c>
+      <c r="K8">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L8">
+        <v>0.6377405254566475</v>
+      </c>
+      <c r="M8">
+        <v>0.09747913195637557</v>
       </c>
     </row>
   </sheetData>
